--- a/LEMME_Chat_Translated_Manual_DE.xlsx
+++ b/LEMME_Chat_Translated_Manual_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mira\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E715CAC-37AE-4AA0-9639-AE66878C86D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF2103-24BD-4534-942C-5BC4E0CBEF74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="90">
   <si>
     <t>Datum</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Startgewicht</t>
   </si>
   <si>
-    <t>bis 9:00 Uhr</t>
-  </si>
-  <si>
     <t>Eier</t>
   </si>
   <si>
@@ -53,12 +50,6 @@
   </si>
   <si>
     <t>Rohes Fenchel</t>
-  </si>
-  <si>
-    <t>12:00 Uhr -               14:00 Uhr</t>
-  </si>
-  <si>
-    <t>19:00 Uhr -                21:00 Uhr</t>
   </si>
   <si>
     <t>Schweinerippchen</t>
@@ -700,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E238"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,21 +727,21 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -758,1825 +749,1825 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
         <v>43</v>
-      </c>
-      <c r="D51" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s">
         <v>61</v>
-      </c>
-      <c r="D53" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D76" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D77" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D78" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D79" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D80" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
         <v>52</v>
-      </c>
-      <c r="D84" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D86" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D88" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D90" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D91" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D95" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D96" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D97" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D101" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D102" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D103" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="D112" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C113" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D113" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D114" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D115" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D116" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D117" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D118" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C119" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D119" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" t="s">
+        <v>74</v>
+      </c>
+      <c r="D120" t="s">
         <v>20</v>
-      </c>
-      <c r="C120" t="s">
-        <v>62</v>
-      </c>
-      <c r="D120" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" t="s">
+        <v>74</v>
+      </c>
+      <c r="D121" t="s">
         <v>20</v>
-      </c>
-      <c r="C121" t="s">
-        <v>77</v>
-      </c>
-      <c r="D121" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" t="s">
         <v>20</v>
-      </c>
-      <c r="C122" t="s">
-        <v>77</v>
-      </c>
-      <c r="D122" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D124" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C125" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C126" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D126" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C127" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D128" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C129" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D129" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C130" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D130" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C131" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D131" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C132" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D132" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D133" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C134" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D134" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C135" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D135" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C136" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C137" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D137" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C138" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D138" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C139" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C140" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D140" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C141" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D141" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C142" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D142" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C143" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D143" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C144" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D144" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C145" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D145" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C146" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D146" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C147" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C148" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C149" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D149" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C150" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D150" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C151" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D151" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C152" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D152" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C153" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D153" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C154" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D154" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C155" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D155" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C156" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D156" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C157" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D157" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C158" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D158" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C159" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D159" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C160" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C162" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C164" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D168" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D169" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
@@ -2584,758 +2575,747 @@
         <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D170" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D171" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D172" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C173" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D173" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C174" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D174" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C175" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D175" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C176" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D176" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C177" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D177" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C178" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D178" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C179" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D179" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C180" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C181" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D181" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C182" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D182" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D183" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D189" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D191" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D192" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C194" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D194" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C195" t="s">
+        <v>48</v>
+      </c>
+      <c r="D195" t="s">
         <v>51</v>
-      </c>
-      <c r="D195" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C196" t="s">
+        <v>73</v>
+      </c>
+      <c r="D196" t="s">
         <v>51</v>
-      </c>
-      <c r="D196" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C197" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D197" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D198" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C199" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D199" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C200" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D200" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C201" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D201" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C202" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D202" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C203" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D203" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C204" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D204" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C205" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D205" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C206" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D206" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C207" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D207" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D208" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D213" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C214" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C216" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D216" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C217" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D217" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C218" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D218" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C219" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D219" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C220" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D220" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C222" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C223" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D223" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C224" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D224" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C225" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D225" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C226" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D226" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C227" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D227" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C228" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="D228" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C229" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D229" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C230" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D230" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C231" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D231" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C232" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D232" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C233" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D233" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C234" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D234" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C235" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D235" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C236" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D236" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C237" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D237" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B238" t="s">
-        <v>38</v>
-      </c>
-      <c r="C238" t="s">
-        <v>66</v>
-      </c>
-      <c r="D238" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/LEMME_Chat_Translated_Manual_DE.xlsx
+++ b/LEMME_Chat_Translated_Manual_DE.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF2103-24BD-4534-942C-5BC4E0CBEF74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C43E6FD-A63D-4071-BFAC-6139A82361B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="118">
   <si>
     <t>Datum</t>
   </si>
@@ -290,13 +290,97 @@
   </si>
   <si>
     <t>Wolfsbarsch (oder Branzino)</t>
+  </si>
+  <si>
+    <t>Artischoken</t>
+  </si>
+  <si>
+    <t>Erdbeeren mit Gurke</t>
+  </si>
+  <si>
+    <t>Thunfisch frisch</t>
+  </si>
+  <si>
+    <t>Spaghetti Butter u. Salbei</t>
+  </si>
+  <si>
+    <t>Erdbeeren mit Sahne</t>
+  </si>
+  <si>
+    <t>Rumpsteak</t>
+  </si>
+  <si>
+    <t>Pilze</t>
+  </si>
+  <si>
+    <t>Hühnerbrustfilet</t>
+  </si>
+  <si>
+    <t>Scholle</t>
+  </si>
+  <si>
+    <t>T-Bonesteak</t>
+  </si>
+  <si>
+    <t>Dorade</t>
+  </si>
+  <si>
+    <t>Spaghetti peperoncino</t>
+  </si>
+  <si>
+    <t>Hühnerbrustfilet gekocht</t>
+  </si>
+  <si>
+    <t>Aubergine</t>
+  </si>
+  <si>
+    <t>Kalbssteak</t>
+  </si>
+  <si>
+    <t>Fenchel gekocht</t>
+  </si>
+  <si>
+    <t>Gekochte Eier</t>
+  </si>
+  <si>
+    <t>Hühnerschenkel</t>
+  </si>
+  <si>
+    <t>Lammkotlett</t>
+  </si>
+  <si>
+    <t>Brioches salate</t>
+  </si>
+  <si>
+    <t>AvocadoOmlette</t>
+  </si>
+  <si>
+    <t>Lammfilet</t>
+  </si>
+  <si>
+    <t>weisse Forelle</t>
+  </si>
+  <si>
+    <t>Rotbarsch</t>
+  </si>
+  <si>
+    <t>Kalbsschnitzel</t>
+  </si>
+  <si>
+    <t>Spargelomlette</t>
+  </si>
+  <si>
+    <t>Spaghetti al limone</t>
+  </si>
+  <si>
+    <t>Schweinekotletts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +392,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -348,11 +445,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -691,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,794 +823,792 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5"/>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
         <v>40</v>
       </c>
-      <c r="D50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
         <v>40</v>
       </c>
-      <c r="D51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>27</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C64" t="s">
         <v>58</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D64" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -1519,10 +1616,10 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -1530,186 +1627,186 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D79" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D83" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D85" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D86" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
         <v>40</v>
       </c>
-      <c r="C90" t="s">
-        <v>45</v>
-      </c>
       <c r="D90" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" t="s">
         <v>40</v>
       </c>
-      <c r="C91" t="s">
-        <v>45</v>
-      </c>
       <c r="D91" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
@@ -1717,10 +1814,10 @@
         <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
@@ -1728,406 +1825,406 @@
         <v>34</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C94" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C95" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C96" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C97" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C99" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C100" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D103" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D104" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D105" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D106" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D107" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D108" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D109" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D110" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D111" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D114" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D115" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D116" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D117" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C118" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D118" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C119" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D119" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C124" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C126" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C127" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D127" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C128" t="s">
         <v>58</v>
       </c>
       <c r="D128" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C129" t="s">
         <v>58</v>
       </c>
       <c r="D129" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
@@ -2135,10 +2232,10 @@
         <v>29</v>
       </c>
       <c r="C130" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D130" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
@@ -2146,1008 +2243,1008 @@
         <v>29</v>
       </c>
       <c r="C131" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D131" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C132" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D132" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D133" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D134" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D135" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D136" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C137" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D137" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D138" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C139" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D139" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C142" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D142" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C143" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D143" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C144" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C145" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D145" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D148" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D149" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C150" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D150" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D151" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="C152" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="D152" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="C153" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="D153" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D154" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C155" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D155" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C156" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D156" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C157" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D157" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C158" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D158" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C159" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D159" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D160" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D161" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D162" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C163" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D163" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C164" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D164" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D165" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D166" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D167" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C168" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D168" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C169" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D169" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C170" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D170" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C171" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D171" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C172" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C173" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C174" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C175" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C176" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C177" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C178" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D178" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C179" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D179" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C180" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D180" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C181" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D181" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D182" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D183" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D184" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D185" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D186" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D187" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D188" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C189" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D189" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D190" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D191" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D192" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D193" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C194" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D194" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C195" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D195" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D196" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D197" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C198" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D199" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D200" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D201" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C202" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D202" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C203" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D203" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" t="s">
         <v>38</v>
       </c>
-      <c r="C204" t="s">
-        <v>78</v>
-      </c>
       <c r="D204" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" t="s">
         <v>38</v>
       </c>
-      <c r="C205" t="s">
-        <v>78</v>
-      </c>
       <c r="D205" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C206" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C207" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C210" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C211" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="C212" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D212" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="C213" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D213" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D214" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D215" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C216" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D216" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C217" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D217" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C218" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D218" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C219" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D219" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C220" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D220" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C221" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D221" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C222" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D222" t="s">
         <v>64</v>
@@ -3155,10 +3252,10 @@
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D223" t="s">
         <v>64</v>
@@ -3169,7 +3266,7 @@
         <v>33</v>
       </c>
       <c r="C224" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D224" t="s">
         <v>64</v>
@@ -3180,7 +3277,7 @@
         <v>33</v>
       </c>
       <c r="C225" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D225" t="s">
         <v>64</v>
@@ -3191,10 +3288,10 @@
         <v>33</v>
       </c>
       <c r="C226" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D226" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
@@ -3202,123 +3299,1513 @@
         <v>33</v>
       </c>
       <c r="C227" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D227" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C228" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D228" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D229" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C230" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D230" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C231" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D231" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C232" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D232" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C233" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D233" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C234" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D234" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C235" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D235" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C236" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D236" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C237" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D237" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>101</v>
+      </c>
+      <c r="C238" t="s">
+        <v>97</v>
+      </c>
+      <c r="D238" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>101</v>
+      </c>
+      <c r="C239" t="s">
+        <v>97</v>
+      </c>
+      <c r="D239" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>101</v>
+      </c>
+      <c r="C240" t="s">
+        <v>95</v>
+      </c>
+      <c r="D240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>101</v>
+      </c>
+      <c r="C241" t="s">
+        <v>95</v>
+      </c>
+      <c r="D241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>101</v>
+      </c>
+      <c r="C242" t="s">
+        <v>97</v>
+      </c>
+      <c r="D242" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>101</v>
+      </c>
+      <c r="C243" t="s">
+        <v>97</v>
+      </c>
+      <c r="D243" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>101</v>
+      </c>
+      <c r="C244" t="s">
+        <v>95</v>
+      </c>
+      <c r="D244" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>101</v>
+      </c>
+      <c r="C245" t="s">
+        <v>95</v>
+      </c>
+      <c r="D245" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>46</v>
+      </c>
+      <c r="D246" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" t="s">
+        <v>46</v>
+      </c>
+      <c r="D247" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" t="s">
+        <v>95</v>
+      </c>
+      <c r="D248" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" t="s">
+        <v>95</v>
+      </c>
+      <c r="D249" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>115</v>
+      </c>
+      <c r="C250" t="s">
+        <v>107</v>
+      </c>
+      <c r="D250" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>115</v>
+      </c>
+      <c r="C251" t="s">
+        <v>107</v>
+      </c>
+      <c r="D251" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252" t="s">
+        <v>20</v>
+      </c>
+      <c r="D252" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253" t="s">
+        <v>20</v>
+      </c>
+      <c r="D253" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>40</v>
+      </c>
+      <c r="C254" t="s">
+        <v>45</v>
+      </c>
+      <c r="D254" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>40</v>
+      </c>
+      <c r="C255" t="s">
+        <v>45</v>
+      </c>
+      <c r="D255" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>40</v>
+      </c>
+      <c r="C256" t="s">
+        <v>70</v>
+      </c>
+      <c r="D256" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>40</v>
+      </c>
+      <c r="C257" t="s">
+        <v>70</v>
+      </c>
+      <c r="D257" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>40</v>
+      </c>
+      <c r="C258" t="s">
+        <v>70</v>
+      </c>
+      <c r="D258" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>40</v>
+      </c>
+      <c r="C259" t="s">
+        <v>70</v>
+      </c>
+      <c r="D259" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>40</v>
+      </c>
+      <c r="C260" t="s">
+        <v>70</v>
+      </c>
+      <c r="D260" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>40</v>
+      </c>
+      <c r="C261" t="s">
+        <v>70</v>
+      </c>
+      <c r="D261" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>40</v>
+      </c>
+      <c r="C262" t="s">
+        <v>72</v>
+      </c>
+      <c r="D262" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>40</v>
+      </c>
+      <c r="C263" t="s">
+        <v>72</v>
+      </c>
+      <c r="D263" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>42</v>
+      </c>
+      <c r="C264" t="s">
+        <v>57</v>
+      </c>
+      <c r="D264" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>42</v>
+      </c>
+      <c r="C265" t="s">
+        <v>57</v>
+      </c>
+      <c r="D265" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>42</v>
+      </c>
+      <c r="C266" t="s">
+        <v>57</v>
+      </c>
+      <c r="D266" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>42</v>
+      </c>
+      <c r="C267" t="s">
+        <v>57</v>
+      </c>
+      <c r="D267" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>42</v>
+      </c>
+      <c r="C268" t="s">
+        <v>57</v>
+      </c>
+      <c r="D268" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>42</v>
+      </c>
+      <c r="C269" t="s">
+        <v>57</v>
+      </c>
+      <c r="D269" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>42</v>
+      </c>
+      <c r="C270" t="s">
+        <v>14</v>
+      </c>
+      <c r="D270" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>42</v>
+      </c>
+      <c r="C271" t="s">
+        <v>14</v>
+      </c>
+      <c r="D271" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>42</v>
+      </c>
+      <c r="C272" t="s">
+        <v>69</v>
+      </c>
+      <c r="D272" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>42</v>
+      </c>
+      <c r="C273" t="s">
+        <v>69</v>
+      </c>
+      <c r="D273" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>42</v>
+      </c>
+      <c r="C274" t="s">
+        <v>69</v>
+      </c>
+      <c r="D274" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>42</v>
+      </c>
+      <c r="C275" t="s">
+        <v>69</v>
+      </c>
+      <c r="D275" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>42</v>
+      </c>
+      <c r="C276" t="s">
+        <v>69</v>
+      </c>
+      <c r="D276" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>42</v>
+      </c>
+      <c r="C277" t="s">
+        <v>69</v>
+      </c>
+      <c r="D277" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>42</v>
+      </c>
+      <c r="C278" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>42</v>
+      </c>
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>38</v>
+      </c>
+      <c r="C280" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>38</v>
+      </c>
+      <c r="C281" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>38</v>
+      </c>
+      <c r="C282" t="s">
+        <v>14</v>
+      </c>
+      <c r="D282" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>38</v>
+      </c>
+      <c r="C283" t="s">
+        <v>14</v>
+      </c>
+      <c r="D283" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>38</v>
+      </c>
+      <c r="C284" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>38</v>
+      </c>
+      <c r="C285" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>38</v>
+      </c>
+      <c r="C286" t="s">
+        <v>14</v>
+      </c>
+      <c r="D286" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>38</v>
+      </c>
+      <c r="C287" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>38</v>
+      </c>
+      <c r="C288" t="s">
+        <v>73</v>
+      </c>
+      <c r="D288" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>38</v>
+      </c>
+      <c r="C289" t="s">
+        <v>73</v>
+      </c>
+      <c r="D289" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>38</v>
+      </c>
+      <c r="C290" t="s">
+        <v>77</v>
+      </c>
+      <c r="D290" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>38</v>
+      </c>
+      <c r="C291" t="s">
+        <v>77</v>
+      </c>
+      <c r="D291" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>38</v>
+      </c>
+      <c r="C292" t="s">
+        <v>78</v>
+      </c>
+      <c r="D292" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>38</v>
+      </c>
+      <c r="C293" t="s">
+        <v>78</v>
+      </c>
+      <c r="D293" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>38</v>
+      </c>
+      <c r="C294" t="s">
+        <v>55</v>
+      </c>
+      <c r="D294" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>38</v>
+      </c>
+      <c r="C295" t="s">
+        <v>55</v>
+      </c>
+      <c r="D295" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>38</v>
+      </c>
+      <c r="C296" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>38</v>
+      </c>
+      <c r="C297" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>31</v>
+      </c>
+      <c r="C298" t="s">
+        <v>62</v>
+      </c>
+      <c r="D298" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>31</v>
+      </c>
+      <c r="C299" t="s">
+        <v>62</v>
+      </c>
+      <c r="D299" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>31</v>
+      </c>
+      <c r="C300" t="s">
+        <v>100</v>
+      </c>
+      <c r="D300" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>31</v>
+      </c>
+      <c r="C301" t="s">
+        <v>100</v>
+      </c>
+      <c r="D301" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>31</v>
+      </c>
+      <c r="C302" t="s">
+        <v>96</v>
+      </c>
+      <c r="D302" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>31</v>
+      </c>
+      <c r="C303" t="s">
+        <v>96</v>
+      </c>
+      <c r="D303" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>31</v>
+      </c>
+      <c r="C304" t="s">
+        <v>83</v>
+      </c>
+      <c r="D304" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>31</v>
+      </c>
+      <c r="C305" t="s">
+        <v>83</v>
+      </c>
+      <c r="D305" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>31</v>
+      </c>
+      <c r="C306" t="s">
+        <v>95</v>
+      </c>
+      <c r="D306" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>31</v>
+      </c>
+      <c r="C307" t="s">
+        <v>95</v>
+      </c>
+      <c r="D307" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>31</v>
+      </c>
+      <c r="C308" t="s">
+        <v>100</v>
+      </c>
+      <c r="D308" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>31</v>
+      </c>
+      <c r="C309" t="s">
+        <v>100</v>
+      </c>
+      <c r="D309" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>31</v>
+      </c>
+      <c r="C310" t="s">
+        <v>107</v>
+      </c>
+      <c r="D310" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>31</v>
+      </c>
+      <c r="C311" t="s">
+        <v>107</v>
+      </c>
+      <c r="D311" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>31</v>
+      </c>
+      <c r="C312" t="s">
+        <v>72</v>
+      </c>
+      <c r="D312" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>31</v>
+      </c>
+      <c r="C313" t="s">
+        <v>72</v>
+      </c>
+      <c r="D313" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>31</v>
+      </c>
+      <c r="C314" t="s">
+        <v>97</v>
+      </c>
+      <c r="D314" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>31</v>
+      </c>
+      <c r="C315" t="s">
+        <v>97</v>
+      </c>
+      <c r="D315" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>31</v>
+      </c>
+      <c r="C316" t="s">
+        <v>97</v>
+      </c>
+      <c r="D316" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>31</v>
+      </c>
+      <c r="C317" t="s">
+        <v>97</v>
+      </c>
+      <c r="D317" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>31</v>
+      </c>
+      <c r="C318" t="s">
+        <v>95</v>
+      </c>
+      <c r="D318" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>31</v>
+      </c>
+      <c r="C319" t="s">
+        <v>95</v>
+      </c>
+      <c r="D319" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>31</v>
+      </c>
+      <c r="C320" t="s">
+        <v>95</v>
+      </c>
+      <c r="D320" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>31</v>
+      </c>
+      <c r="C321" t="s">
+        <v>95</v>
+      </c>
+      <c r="D321" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>31</v>
+      </c>
+      <c r="C322" t="s">
+        <v>72</v>
+      </c>
+      <c r="D322" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>31</v>
+      </c>
+      <c r="C323" t="s">
+        <v>72</v>
+      </c>
+      <c r="D323" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>31</v>
+      </c>
+      <c r="C324" t="s">
+        <v>100</v>
+      </c>
+      <c r="D324" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>31</v>
+      </c>
+      <c r="C325" t="s">
+        <v>100</v>
+      </c>
+      <c r="D325" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>31</v>
+      </c>
+      <c r="C326" t="s">
+        <v>46</v>
+      </c>
+      <c r="D326" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>31</v>
+      </c>
+      <c r="C327" t="s">
+        <v>46</v>
+      </c>
+      <c r="D327" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>31</v>
+      </c>
+      <c r="C328" t="s">
+        <v>100</v>
+      </c>
+      <c r="D328" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>31</v>
+      </c>
+      <c r="C329" t="s">
+        <v>100</v>
+      </c>
+      <c r="D329" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>31</v>
+      </c>
+      <c r="C330" t="s">
+        <v>72</v>
+      </c>
+      <c r="D330" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>31</v>
+      </c>
+      <c r="C331" t="s">
+        <v>72</v>
+      </c>
+      <c r="D331" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>31</v>
+      </c>
+      <c r="C332" t="s">
+        <v>97</v>
+      </c>
+      <c r="D332" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>31</v>
+      </c>
+      <c r="C333" t="s">
+        <v>97</v>
+      </c>
+      <c r="D333" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>43</v>
+      </c>
+      <c r="C334" t="s">
+        <v>21</v>
+      </c>
+      <c r="D334" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>43</v>
+      </c>
+      <c r="C335" t="s">
+        <v>21</v>
+      </c>
+      <c r="D335" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>43</v>
+      </c>
+      <c r="C336" t="s">
+        <v>40</v>
+      </c>
+      <c r="D336" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>43</v>
+      </c>
+      <c r="C337" t="s">
+        <v>40</v>
+      </c>
+      <c r="D337" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>43</v>
+      </c>
+      <c r="C338" t="s">
+        <v>54</v>
+      </c>
+      <c r="D338" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>43</v>
+      </c>
+      <c r="C339" t="s">
+        <v>54</v>
+      </c>
+      <c r="D339" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>43</v>
+      </c>
+      <c r="C340" t="s">
+        <v>58</v>
+      </c>
+      <c r="D340" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>43</v>
+      </c>
+      <c r="C341" t="s">
+        <v>58</v>
+      </c>
+      <c r="D341" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>43</v>
+      </c>
+      <c r="C342" t="s">
+        <v>97</v>
+      </c>
+      <c r="D342" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>43</v>
+      </c>
+      <c r="C343" t="s">
+        <v>97</v>
+      </c>
+      <c r="D343" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>43</v>
+      </c>
+      <c r="C344" t="s">
+        <v>83</v>
+      </c>
+      <c r="D344" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>43</v>
+      </c>
+      <c r="C345" t="s">
+        <v>83</v>
+      </c>
+      <c r="D345" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>43</v>
+      </c>
+      <c r="C346" t="s">
+        <v>46</v>
+      </c>
+      <c r="D346" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>43</v>
+      </c>
+      <c r="C347" t="s">
+        <v>46</v>
+      </c>
+      <c r="D347" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>43</v>
+      </c>
+      <c r="C348" t="s">
+        <v>46</v>
+      </c>
+      <c r="D348" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>43</v>
+      </c>
+      <c r="C349" t="s">
+        <v>46</v>
+      </c>
+      <c r="D349" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>43</v>
+      </c>
+      <c r="C350" t="s">
+        <v>111</v>
+      </c>
+      <c r="D350" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>43</v>
+      </c>
+      <c r="C351" t="s">
+        <v>111</v>
+      </c>
+      <c r="D351" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>43</v>
+      </c>
+      <c r="C352" t="s">
+        <v>100</v>
+      </c>
+      <c r="D352" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>43</v>
+      </c>
+      <c r="C353" t="s">
+        <v>100</v>
+      </c>
+      <c r="D353" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>43</v>
+      </c>
+      <c r="C354" t="s">
+        <v>100</v>
+      </c>
+      <c r="D354" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>43</v>
+      </c>
+      <c r="C355" t="s">
+        <v>100</v>
+      </c>
+      <c r="D355" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>43</v>
+      </c>
+      <c r="C356" t="s">
+        <v>97</v>
+      </c>
+      <c r="D356" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>43</v>
+      </c>
+      <c r="C357" t="s">
+        <v>97</v>
+      </c>
+      <c r="D357" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>43</v>
+      </c>
+      <c r="C358" t="s">
+        <v>83</v>
+      </c>
+      <c r="D358" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>43</v>
+      </c>
+      <c r="C359" t="s">
+        <v>83</v>
+      </c>
+      <c r="D359" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>43</v>
+      </c>
+      <c r="C360" t="s">
+        <v>102</v>
+      </c>
+      <c r="D360" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>43</v>
+      </c>
+      <c r="C361" t="s">
+        <v>102</v>
+      </c>
+      <c r="D361" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>43</v>
+      </c>
+      <c r="C362" t="s">
+        <v>97</v>
+      </c>
+      <c r="D362" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>43</v>
+      </c>
+      <c r="C363" t="s">
+        <v>97</v>
+      </c>
+      <c r="D363" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:E363">
+    <sortCondition ref="A51"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LEMME_Chat_Translated_Manual_DE.xlsx
+++ b/LEMME_Chat_Translated_Manual_DE.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC667B6-11B6-4D6A-A779-62C1F0BC2465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FF7AE2-6604-4261-8A11-6FF352A1E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="107">
   <si>
     <t>Datum</t>
   </si>
@@ -49,9 +52,6 @@
     <t>Blumenkohl</t>
   </si>
   <si>
-    <t>Rohes Fenchel</t>
-  </si>
-  <si>
     <t>Schweinerippchen</t>
   </si>
   <si>
@@ -109,12 +109,6 @@
     <t>Kalbshackfleisch mit geriebener Kokosnuss</t>
   </si>
   <si>
-    <t>Hartgekochte Eier</t>
-  </si>
-  <si>
-    <t>Roher Fenchel</t>
-  </si>
-  <si>
     <t>Zucchini</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>Gurken</t>
   </si>
   <si>
-    <t>Cime di Rapa (Stängelkohl)</t>
-  </si>
-  <si>
     <t>Wirsingkohl</t>
   </si>
   <si>
@@ -148,48 +139,27 @@
     <t>Salat aus geschälten Zitronenstücken</t>
   </si>
   <si>
-    <t>Weichgekochte Eier</t>
-  </si>
-  <si>
     <t>Zwiebeln</t>
   </si>
   <si>
-    <t>Avocado und Öl</t>
-  </si>
-  <si>
-    <t>Nacken vom Schwein</t>
-  </si>
-  <si>
     <t>Schwertfisch</t>
   </si>
   <si>
     <t>Kaninchen</t>
   </si>
   <si>
-    <t>Catalogna (oder Chicorée)</t>
-  </si>
-  <si>
     <t>Brokkoli</t>
   </si>
   <si>
-    <t>Kalbsnierenstück</t>
-  </si>
-  <si>
     <t>Hähnchenbrust</t>
   </si>
   <si>
     <t>Lammkoteletts</t>
   </si>
   <si>
-    <t>Kräuter</t>
-  </si>
-  <si>
     <t>Steinbutt</t>
   </si>
   <si>
-    <t>Hamburger-Geflügel</t>
-  </si>
-  <si>
     <t>Putenbrust</t>
   </si>
   <si>
@@ -217,9 +187,6 @@
     <t>Gekochter Fenchel</t>
   </si>
   <si>
-    <t>Barsch</t>
-  </si>
-  <si>
     <t>Kalbsfilet</t>
   </si>
   <si>
@@ -232,9 +199,6 @@
     <t>Rinderfilet</t>
   </si>
   <si>
-    <t>Stängelkohl</t>
-  </si>
-  <si>
     <t>Putenkeulen</t>
   </si>
   <si>
@@ -244,12 +208,6 @@
     <t>Sardinen</t>
   </si>
   <si>
-    <t>Makrele</t>
-  </si>
-  <si>
-    <t>Schweineschinkenstück</t>
-  </si>
-  <si>
     <t>Wolfsbarsch</t>
   </si>
   <si>
@@ -262,9 +220,6 @@
     <t>Große Rosenkohlköpfe</t>
   </si>
   <si>
-    <t>Rindertatar</t>
-  </si>
-  <si>
     <t>Artischoken</t>
   </si>
   <si>
@@ -277,9 +232,6 @@
     <t>Spaghetti Butter u. Salbei</t>
   </si>
   <si>
-    <t>Erdbeeren mit Sahne</t>
-  </si>
-  <si>
     <t>Rumpsteak</t>
   </si>
   <si>
@@ -289,9 +241,6 @@
     <t>Hühnerbrustfilet</t>
   </si>
   <si>
-    <t>Scholle</t>
-  </si>
-  <si>
     <t>T-Bonesteak</t>
   </si>
   <si>
@@ -313,15 +262,9 @@
     <t>Fenchel gekocht</t>
   </si>
   <si>
-    <t>Gekochte Eier</t>
-  </si>
-  <si>
     <t>Hühnerschenkel</t>
   </si>
   <si>
-    <t>AvocadoOmlette</t>
-  </si>
-  <si>
     <t>Lammfilet</t>
   </si>
   <si>
@@ -331,12 +274,6 @@
     <t>Spargelomlette</t>
   </si>
   <si>
-    <t>Spaghetti al limone</t>
-  </si>
-  <si>
-    <t>Schweinekotletts</t>
-  </si>
-  <si>
     <t>Rindersteak</t>
   </si>
   <si>
@@ -346,15 +283,6 @@
     <t>Schweinefleisch</t>
   </si>
   <si>
-    <t>Hähnchenkeule</t>
-  </si>
-  <si>
-    <t>Zwiebel</t>
-  </si>
-  <si>
-    <t>Gekochtes Ei</t>
-  </si>
-  <si>
     <t>Zucchini (Halber Apfel)</t>
   </si>
   <si>
@@ -367,9 +295,6 @@
     <t>Schweinekotelett</t>
   </si>
   <si>
-    <t>Artischocken (Apfel)</t>
-  </si>
-  <si>
     <t>Dorade/Seezunge/Frischer Thunfisch/Wolfsbarsch/Scholle</t>
   </si>
   <si>
@@ -394,7 +319,31 @@
     <t>Frischer Thunfisch/Wolfsbarsch/Scholle</t>
   </si>
   <si>
-    <t>Küchenkücken</t>
+    <t>Avocado Omlette</t>
+  </si>
+  <si>
+    <t>Eier Hartgekochte</t>
+  </si>
+  <si>
+    <t>Fenchel Roh</t>
+  </si>
+  <si>
+    <t>Eier Weichgekochte</t>
+  </si>
+  <si>
+    <t>Chicorée</t>
+  </si>
+  <si>
+    <t>Mangold</t>
+  </si>
+  <si>
+    <t>Schweinenacken</t>
+  </si>
+  <si>
+    <t>Fenchel roh</t>
+  </si>
+  <si>
+    <t>Schweinefilet</t>
   </si>
 </sst>
 </file>
@@ -466,15 +415,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -779,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E389"/>
+  <dimension ref="A1:E240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:XFD115"/>
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,1061 +759,1057 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>118</v>
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>118</v>
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>116</v>
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>116</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>116</v>
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>116</v>
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>116</v>
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>116</v>
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>116</v>
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>116</v>
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>119</v>
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>116</v>
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>80</v>
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>77</v>
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>116</v>
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>116</v>
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>98</v>
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>9</v>
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>116</v>
+        <v>39</v>
+      </c>
+      <c r="D66" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>116</v>
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D71" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>116</v>
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D74" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D75" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>70</v>
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>46</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>56</v>
+        <v>99</v>
+      </c>
+      <c r="C79" t="s">
+        <v>71</v>
       </c>
       <c r="D79" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>20</v>
+        <v>96</v>
+      </c>
+      <c r="D80" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>47</v>
+        <v>90</v>
+      </c>
+      <c r="D81" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="D84" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D85" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D88" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D90" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D91" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="D93" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D94" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D95" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D97" t="s">
         <v>48</v>
@@ -1874,1390 +1817,1019 @@
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C98" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D98" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D99" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D100" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C101" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="D101" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C102" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>71</v>
+        <v>38</v>
+      </c>
+      <c r="D104" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D105" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D106" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D107" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="D108" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D109" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="C110" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D110" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D111" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C112" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="D112" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D113" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="D114" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D115" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="D116" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D117" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="5" t="s">
-        <v>92</v>
+      <c r="B118" t="s">
+        <v>79</v>
       </c>
       <c r="C118" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D118" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="5" t="s">
-        <v>92</v>
+      <c r="B119" t="s">
+        <v>31</v>
       </c>
       <c r="C119" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D119" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="C120" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D120" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C122" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D122" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="C123" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C124" t="s">
-        <v>86</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="D124" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C125" t="s">
-        <v>46</v>
-      </c>
-      <c r="D125" s="5" t="s">
         <v>49</v>
+      </c>
+      <c r="D125" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
-        <v>107</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>108</v>
+        <v>57</v>
+      </c>
+      <c r="D126" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>86</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="C128" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="D128" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D129" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C130" t="s">
-        <v>68</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>21</v>
+        <v>90</v>
+      </c>
+      <c r="D130" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C131" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D131" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C132" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D132" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D133" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D134" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C135" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D135" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>116</v>
+        <v>39</v>
+      </c>
+      <c r="D136" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C137" t="s">
-        <v>56</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>116</v>
+        <v>71</v>
+      </c>
+      <c r="D137" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D138" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C139" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D139" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D140" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C141" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D141" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>67</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="D142" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>8</v>
+        <v>83</v>
+      </c>
+      <c r="D143" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C144" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="D144" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D145" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>38</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>72</v>
+        <v>36</v>
+      </c>
+      <c r="C146" t="s">
+        <v>104</v>
       </c>
       <c r="D146" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>38</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C148" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D149" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>38</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="C150" t="s">
+        <v>90</v>
       </c>
       <c r="D150" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>31</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>88</v>
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>34</v>
       </c>
       <c r="D151" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C152" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D152" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C153" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="D153" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C154" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D154" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D155" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="D156" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D157" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="D158" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C159" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="D159" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>31</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>69</v>
+        <v>22</v>
+      </c>
+      <c r="C160" t="s">
+        <v>103</v>
       </c>
       <c r="D160" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>31</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>86</v>
+        <v>30</v>
+      </c>
+      <c r="C161" t="s">
+        <v>51</v>
       </c>
       <c r="D161" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>31</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="C162" t="s">
+        <v>57</v>
       </c>
       <c r="D162" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>31</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>116</v>
+        <v>38</v>
+      </c>
+      <c r="C163" t="s">
+        <v>20</v>
       </c>
       <c r="D163" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D164" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C165" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D165" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C166" t="s">
-        <v>46</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="D166" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>51</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>56</v>
+        <v>105</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>51</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>56</v>
+        <v>104</v>
+      </c>
+      <c r="D168" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C169" t="s">
-        <v>116</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>46</v>
+        <v>90</v>
+      </c>
+      <c r="D169" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C170" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D170" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C171" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D171" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C173" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D173" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C174" t="s">
         <v>51</v>
       </c>
       <c r="D174" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C175" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D175" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C176" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D176" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C177" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D177" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C178" t="s">
-        <v>88</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>116</v>
+        <v>56</v>
+      </c>
+      <c r="D178" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C179" t="s">
-        <v>46</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>116</v>
+        <v>55</v>
+      </c>
+      <c r="D179" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C180" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D180" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C181" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D181" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="D182" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D183" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>57</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>47</v>
+        <v>105</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C185" t="s">
-        <v>116</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C186" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D186" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D187" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D188" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>43</v>
-      </c>
-      <c r="C189" t="s">
-        <v>40</v>
-      </c>
-      <c r="D189" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D190" s="5"/>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D191" s="5"/>
-    </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D194" s="5"/>
-    </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D195" s="5"/>
-    </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C196" s="5"/>
-    </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C197" s="5"/>
-    </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D206" s="5"/>
-    </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-    </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D208" s="5"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D210" s="5"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D211" s="5"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D218" s="5"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D219" s="5"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C220" s="5"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C221" s="5"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C224" s="5"/>
-    </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C225" s="5"/>
-    </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C226" s="5"/>
-    </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C227" s="5"/>
-    </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
-    </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
-    </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D235" s="5"/>
-    </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D237" s="5"/>
-    </row>
-    <row r="240" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D242" s="5"/>
-    </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D243" s="5"/>
-    </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D246" s="5"/>
-    </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D247" s="5"/>
-    </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D250" s="5"/>
-    </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D251" s="5"/>
-    </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D252" s="5"/>
-    </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D253" s="5"/>
-    </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D276" s="5"/>
-    </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D277" s="5"/>
-    </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D280" s="5"/>
-    </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D281" s="5"/>
-    </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D294" s="5"/>
-    </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D295" s="5"/>
-    </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D296" s="5"/>
-    </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D297" s="5"/>
-    </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C298" s="5"/>
-    </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C299" s="5"/>
-    </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C310" s="5"/>
-    </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C311" s="5"/>
-    </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C314" s="5"/>
-    </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C315" s="5"/>
-    </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C318" s="5"/>
-    </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C319" s="5"/>
-    </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D320" s="5"/>
-    </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D321" s="5"/>
-    </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D322" s="5"/>
-    </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D323" s="5"/>
-    </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D324" s="5"/>
-    </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D325" s="5"/>
-    </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D326" s="5"/>
-    </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D327" s="5"/>
-    </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D330" s="5"/>
-    </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D331" s="5"/>
-    </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D332" s="5"/>
-    </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D333" s="5"/>
-    </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C334" s="5"/>
-    </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C335" s="5"/>
-    </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C338" s="5"/>
-    </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C339" s="5"/>
-    </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D346" s="5"/>
-    </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D347" s="5"/>
-    </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D350" s="5"/>
-    </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D351" s="5"/>
-    </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D352" s="5"/>
-    </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D353" s="5"/>
-    </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B360" s="4"/>
-      <c r="C360" s="4"/>
-      <c r="D360" s="4"/>
-    </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B361" s="4"/>
-      <c r="C361" s="4"/>
-      <c r="D361" s="4"/>
-    </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B362" s="4"/>
-      <c r="C362" s="4"/>
-      <c r="D362" s="4"/>
-    </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B363" s="4"/>
-      <c r="C363" s="4"/>
-      <c r="D363" s="4"/>
-    </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B364" s="4"/>
-      <c r="C364" s="4"/>
-      <c r="D364" s="4"/>
-    </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B365" s="4"/>
-      <c r="C365" s="4"/>
-      <c r="D365" s="4"/>
-    </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B366" s="4"/>
-      <c r="C366" s="4"/>
-      <c r="D366" s="5"/>
-    </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B367" s="4"/>
-      <c r="C367" s="4"/>
-      <c r="D367" s="5"/>
-    </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B368" s="4"/>
-      <c r="C368" s="5"/>
-      <c r="D368" s="5"/>
-    </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B369" s="4"/>
-      <c r="C369" s="5"/>
-      <c r="D369" s="5"/>
-    </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B370" s="4"/>
-      <c r="C370" s="4"/>
-      <c r="D370" s="5"/>
-    </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B371" s="4"/>
-      <c r="C371" s="4"/>
-      <c r="D371" s="5"/>
-    </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B372" s="4"/>
-      <c r="C372" s="4"/>
-      <c r="D372" s="4"/>
-    </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B373" s="4"/>
-      <c r="C373" s="4"/>
-      <c r="D373" s="4"/>
-    </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B374" s="4"/>
-      <c r="C374" s="4"/>
-      <c r="D374" s="4"/>
-    </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B375" s="5"/>
-      <c r="C375" s="5"/>
-      <c r="D375" s="5"/>
-    </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B376" s="5"/>
-      <c r="C376" s="5"/>
-      <c r="D376" s="5"/>
-    </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B377" s="5"/>
-      <c r="C377" s="5"/>
-      <c r="D377" s="5"/>
-    </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B378" s="5"/>
-      <c r="C378" s="5"/>
-      <c r="D378" s="5"/>
-    </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B379" s="5"/>
-      <c r="C379" s="5"/>
-      <c r="D379" s="5"/>
-    </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B380" s="5"/>
-      <c r="C380" s="5"/>
-      <c r="D380" s="5"/>
-    </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B381" s="5"/>
-      <c r="C381" s="5"/>
-      <c r="D381" s="5"/>
-    </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B382" s="5"/>
-      <c r="C382" s="5"/>
-      <c r="D382" s="5"/>
-    </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B383" s="5"/>
-      <c r="C383" s="5"/>
-      <c r="D383" s="5"/>
-    </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B384" s="5"/>
-      <c r="C384" s="5"/>
-      <c r="D384" s="5"/>
-    </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B385" s="5"/>
-      <c r="C385" s="5"/>
-      <c r="D385" s="5"/>
-    </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B386" s="5"/>
-      <c r="C386" s="5"/>
-      <c r="D386" s="5"/>
-    </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B387" s="5"/>
-      <c r="C387" s="5"/>
-      <c r="D387" s="5"/>
-    </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B388" s="5"/>
-      <c r="C388" s="5"/>
-      <c r="D388" s="5"/>
-    </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B389" s="5"/>
-      <c r="C389" s="5"/>
-      <c r="D389" s="5"/>
-    </row>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E396">
-    <sortCondition ref="B1:B396"/>
+  <autoFilter ref="B1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
+    <sortCondition ref="D1:D390"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LEMME_Chat_Translated_Manual_DE.xlsx
+++ b/LEMME_Chat_Translated_Manual_DE.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FF7AE2-6604-4261-8A11-6FF352A1E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021151BF-C3F6-4F32-87BD-5756E98E83BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$188</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="106">
   <si>
     <t>Datum</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Startgewicht</t>
-  </si>
-  <si>
-    <t>Eier</t>
   </si>
   <si>
     <t>Avocado, Öl und schwarzer Pfeffer</t>
@@ -728,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,2061 +756,2061 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
         <v>86</v>
       </c>
-      <c r="C59" t="s">
-        <v>87</v>
-      </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
         <v>38</v>
       </c>
-      <c r="C66" t="s">
-        <v>39</v>
-      </c>
       <c r="D66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" t="s">
         <v>96</v>
-      </c>
-      <c r="D80" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" t="s">
         <v>87</v>
-      </c>
-      <c r="D85" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C112" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C113" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C115" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C117" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C118" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D122" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D128" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C130" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D130" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C131" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D131" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C132" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D132" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D133" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
+        <v>37</v>
+      </c>
+      <c r="C136" t="s">
         <v>38</v>
       </c>
-      <c r="C136" t="s">
-        <v>39</v>
-      </c>
       <c r="D136" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D137" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C139" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C141" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C143" t="s">
+        <v>82</v>
+      </c>
+      <c r="D143" t="s">
         <v>83</v>
-      </c>
-      <c r="D143" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C144" t="s">
+        <v>82</v>
+      </c>
+      <c r="D144" t="s">
         <v>83</v>
-      </c>
-      <c r="D144" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C146" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D146" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D150" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C153" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C154" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C159" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D159" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C160" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D160" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D161" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C162" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D162" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C164" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C165" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D165" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C167" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D168" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C169" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D169" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D170" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C171" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D171" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
         <v>6</v>
-      </c>
-      <c r="C172" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C173" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C174" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C175" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C176" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C177" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C178" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C180" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C181" t="s">
+        <v>93</v>
+      </c>
+      <c r="D181" t="s">
         <v>94</v>
-      </c>
-      <c r="D181" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C188" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -2827,7 +2824,7 @@
     </row>
     <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:D188" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
     <sortCondition ref="D1:D390"/>
   </sortState>
